--- a/3.ehome/03-项目管理/05 员工日报/863-PMC-06 刘浩浩日报 V1.1.xlsx
+++ b/3.ehome/03-项目管理/05 员工日报/863-PMC-06 刘浩浩日报 V1.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <r>
       <rPr>
@@ -380,16 +380,30 @@
 3、融云接口说明文档修改；</t>
   </si>
   <si>
+    <t>201708010</t>
+  </si>
+  <si>
     <t>完成工作:
 1、删除发言接口开发
 2、测试已完成接口
 3、一期、二期需求讨论会</t>
   </si>
   <si>
+    <t>201708011</t>
+  </si>
+  <si>
     <t>完成工作:
 1、详情接口调整
 2、同李超讨论接口参数
 3、修改接口文档</t>
+  </si>
+  <si>
+    <t>20170814</t>
+  </si>
+  <si>
+    <t>完成工作:
+1、我家首页接口开发
+2、研究emoji入库方案</t>
   </si>
 </sst>
 </file>
@@ -397,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="77">
     <font>
@@ -557,7 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,9 +585,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -584,11 +613,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,8 +635,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,22 +680,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,29 +700,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,6 +711,20 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="Calibri"/>
@@ -682,43 +732,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -729,6 +763,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
@@ -736,23 +780,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -804,11 +831,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="HP Logo LG"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
@@ -816,14 +838,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="20"/>
+      <name val="HP Logo LG"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -836,14 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -929,37 +943,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,145 +1141,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,25 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,97 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,17 +1443,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,11 +1497,24 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,32 +1543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1527,26 +1552,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,17 +1587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1584,6 +1598,21 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,16 +1633,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1625,17 +1650,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1687,10 +1701,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1699,225 +1713,225 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="54" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyBorder="0">
+    <xf numFmtId="0" fontId="53" fillId="56" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="28" applyBorder="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" applyBorder="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="44" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="40" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="55" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="54" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="32" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="34" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="34" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1951,7 +1965,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="108" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="103" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="102" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="108" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1975,103 +1989,103 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="108" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="55" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="55" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="55" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="55" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="55" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="54" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="54" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2090,9 +2104,9 @@
     <cellStyle name="超链接" xfId="11" builtinId="8"/>
     <cellStyle name="百分比" xfId="12" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="Header 1" xfId="15"/>
-    <cellStyle name="40% - Accent6" xfId="16"/>
+    <cellStyle name="40% - Accent6" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="Header 1" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
     <cellStyle name="标题 4" xfId="18" builtinId="19"/>
     <cellStyle name="警告文本" xfId="19" builtinId="11"/>
@@ -2126,13 +2140,13 @@
     <cellStyle name="Table Heading" xfId="47"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="50"/>
-    <cellStyle name="60% - Accent1" xfId="51"/>
+    <cellStyle name="60% - Accent1" xfId="50"/>
+    <cellStyle name="20% - Accent5" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="20% - Accent6" xfId="54"/>
-    <cellStyle name="常规 2 2" xfId="55"/>
-    <cellStyle name="60% - Accent2" xfId="56"/>
+    <cellStyle name="常规 2 2" xfId="54"/>
+    <cellStyle name="60% - Accent2" xfId="55"/>
+    <cellStyle name="20% - Accent6" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
@@ -2157,8 +2171,8 @@
     <cellStyle name="Accent6" xfId="78"/>
     <cellStyle name="Bad" xfId="79"/>
     <cellStyle name="Calculation" xfId="80"/>
-    <cellStyle name="Check Cell" xfId="81"/>
-    <cellStyle name="Table Small Center" xfId="82"/>
+    <cellStyle name="Table Small Center" xfId="81"/>
+    <cellStyle name="Check Cell" xfId="82"/>
     <cellStyle name="Explanatory Text" xfId="83"/>
     <cellStyle name="Good" xfId="84"/>
     <cellStyle name="Header 2" xfId="85"/>
@@ -2178,8 +2192,8 @@
     <cellStyle name="Table Small" xfId="99"/>
     <cellStyle name="Table Small Bold" xfId="100"/>
     <cellStyle name="Table Title" xfId="101"/>
-    <cellStyle name="Title" xfId="102"/>
-    <cellStyle name="常规 2" xfId="103"/>
+    <cellStyle name="常规 2" xfId="102"/>
+    <cellStyle name="Title" xfId="103"/>
     <cellStyle name="Total" xfId="104"/>
     <cellStyle name="Warning Text" xfId="105"/>
     <cellStyle name="標準 2" xfId="106"/>
@@ -4381,13 +4395,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -4497,7 +4511,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="123.75" customHeight="1" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>39</v>
@@ -4512,13 +4526,13 @@
         <v>40</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="123.75" customHeight="1" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>39</v>
@@ -4533,16 +4547,37 @@
         <v>40</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="123.75" customHeight="1" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8">
       <formula1>"项目管理,设计书编写,设计书review,代码开发,代码review,单元测试,单元测试文档编写,单元测试文档review,系统测试,系统测试文档编写"</formula1>
     </dataValidation>
   </dataValidations>
